--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2DF01A-B664-45B3-A7C6-7E6B6F0EBF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8198FF2E-E483-4D15-83F1-72F3EECF32C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="348" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -78,11 +78,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[2:20]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1:1]]</t>
+    <t>[2:20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1:1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextPawn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -433,9 +437,10 @@
     <col min="4" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="14.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="13.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -454,8 +459,11 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +482,11 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>101</v>
       </c>
@@ -483,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
@@ -491,11 +502,14 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>102</v>
       </c>
@@ -503,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
@@ -514,8 +528,11 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>103</v>
       </c>
@@ -523,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
@@ -534,8 +551,11 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>104</v>
       </c>
@@ -554,8 +574,11 @@
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>105</v>
       </c>
@@ -574,8 +597,11 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>106</v>
       </c>
@@ -594,8 +620,11 @@
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>107</v>
       </c>
@@ -614,8 +643,11 @@
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>108</v>
       </c>
@@ -634,8 +666,11 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>109</v>
       </c>
@@ -654,8 +689,11 @@
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>110</v>
       </c>
@@ -674,8 +712,11 @@
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>111</v>
       </c>
@@ -694,8 +735,11 @@
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>112</v>
       </c>
@@ -714,8 +758,11 @@
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>113</v>
       </c>
@@ -732,6 +779,9 @@
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8198FF2E-E483-4D15-83F1-72F3EECF32C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8EF14E-25BB-4F29-8DF2-125A19BAA845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4164" yWindow="4116" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8EF14E-25BB-4F29-8DF2-125A19BAA845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E51AF6-FDDE-417B-BB8C-35DDC9CDF852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4164" yWindow="4116" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -78,15 +78,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2:20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1:1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nextPawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八排的观察哨发来警报，敌军步兵再次接近。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八排已经与敌人接战，但有一个排左右的敌军正在向我们阵地绕行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这才不到一个小时，来得太快了。八排应该要顶不住了…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快！抢修工事，尽快歼灭正面的敌军，从侧面掩护八排！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们这打得越激烈，八排的压力就越小…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明白！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们来了！准备迎战！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +132,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -136,13 +172,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,16 +472,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="14.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
@@ -483,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -494,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
@@ -505,8 +554,8 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
-        <v>1005</v>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
@@ -534,10 +583,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>201</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -555,35 +604,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
+    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>202</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>105</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>203</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -603,10 +652,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>106</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>204</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -626,10 +675,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>107</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>205</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -649,10 +698,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>108</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>206</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -672,10 +721,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>109</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>207</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -689,100 +738,8 @@
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>110</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>111</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>112</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>113</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
+      <c r="G11" s="2">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E51AF6-FDDE-417B-BB8C-35DDC9CDF852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D93EC63-1431-408E-BAEC-0746C10FCDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -90,39 +90,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>八排的观察哨发来警报，敌军步兵再次接近。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八排已经与敌人接战，但有一个排左右的敌军正在向我们阵地绕行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这才不到一个小时，来得太快了。八排应该要顶不住了…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快！抢修工事，尽快歼灭正面的敌军，从侧面掩护八排！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们这打得越激烈，八排的压力就越小…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明白！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们来了！准备迎战！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>The 8th platoon is engaing the enemies. Dozens of enemies is trying to flank them from our position.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This must not happen. Set up some fortifications and eliminate them!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The more enemies we hold, the easier it would be for the 8th platoon.</t>
+  </si>
+  <si>
+    <t>Enemies incoming! Get ready!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,14 +118,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -172,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,16 +159,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,7 +514,7 @@
       <c r="A3" s="2">
         <v>101</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -562,7 +537,7 @@
       <c r="A4" s="2">
         <v>102</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -581,7 +556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>201</v>
       </c>
@@ -592,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
@@ -605,29 +580,29 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>202</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>203</v>
       </c>
@@ -638,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
@@ -661,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -669,76 +644,7 @@
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>205</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>206</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>207</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="G8" s="2">
         <v>1005</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D93EC63-1431-408E-BAEC-0746C10FCDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C5044-AE2A-4DC5-AC54-96C3011E0F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="0" windowWidth="10644" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -648,6 +648,29 @@
         <v>1005</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>205</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D93EC63-1431-408E-BAEC-0746C10FCDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C461E4E-8E48-43C8-BD8E-C59FA70D5D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="4536" windowWidth="22800" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Enemies incoming! Get ready!</t>
+  </si>
+  <si>
+    <t>zoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoomSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -447,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -459,12 +471,12 @@
     <col min="2" max="2" width="57" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="13.44140625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="14.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="13.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -481,13 +493,22 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,13 +525,22 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>101</v>
       </c>
@@ -526,14 +556,23 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>102</v>
       </c>
@@ -549,14 +588,23 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>201</v>
       </c>
@@ -572,14 +620,23 @@
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>202</v>
       </c>
@@ -595,14 +652,23 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>203</v>
       </c>
@@ -618,14 +684,23 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>204</v>
       </c>
@@ -641,10 +716,19 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
+      <c r="F8" s="2">
+        <v>2</v>
       </c>
       <c r="G8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2">
         <v>1005</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C5044-AE2A-4DC5-AC54-96C3011E0F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCEE65-1851-4143-B48B-CA3BF508D080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="0" windowWidth="10644" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,77 +25,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dialogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
   </si>
   <si>
     <t>isAuto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>waitTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedPos</t>
+  </si>
+  <si>
+    <t>zoom</t>
+  </si>
+  <si>
+    <t>zoomSpeed</t>
+  </si>
+  <si>
+    <t>nextId</t>
+  </si>
+  <si>
+    <t>nextPawn</t>
   </si>
   <si>
     <t>ReadyForBattle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1:1]</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>Let's rock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1:1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextPawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The 8th platoon is engaing the enemies. Dozens of enemies is trying to flank them from our position.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>This must not happen. Set up some fortifications and eliminate them!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The more enemies we hold, the easier it would be for the 8th platoon.</t>
@@ -150,22 +139,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,227 +427,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="57" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="13.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="94.21875" style="1" customWidth="1"/>
+    <col min="3" max="10" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>101</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="b">
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>202</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>204</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>205</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>102</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>201</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>202</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>203</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>204</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>205</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1">
         <v>1005</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCEE65-1851-4143-B48B-CA3BF508D080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BB6624-14CB-421F-AA7D-F1AB08F70B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,14 +430,17 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="94.21875" style="1" customWidth="1"/>
-    <col min="3" max="10" width="8.88671875" style="1"/>
+    <col min="3" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BB6624-14CB-421F-AA7D-F1AB08F70B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D70FA84-30CC-4116-8F6E-61D8EEC4738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -524,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
@@ -556,10 +556,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
@@ -588,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -652,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -684,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -716,10 +716,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>

--- a/GameDesign/ExcelData/Dialogue_Data.xlsx
+++ b/GameDesign/ExcelData/Dialogue_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D70FA84-30CC-4116-8F6E-61D8EEC4738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F834D5-6122-4E6D-85B9-9B3D3EDB0476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>long</t>
   </si>
@@ -81,16 +81,22 @@
     <t>Let's rock</t>
   </si>
   <si>
-    <t>The 8th platoon is engaing the enemies. Dozens of enemies is trying to flank them from our position.</t>
-  </si>
-  <si>
     <t>This must not happen. Set up some fortifications and eliminate them!</t>
   </si>
   <si>
+    <t>Enemies incoming! Get ready!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 8th platoon is engaing the enemies. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dozens of enemies is trying to flank them from our position.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>The more enemies we hold, the easier it would be for the 8th platoon.</t>
-  </si>
-  <si>
-    <t>Enemies incoming! Get ready!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -576,7 +582,7 @@
         <v>201</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -608,7 +614,7 @@
         <v>202</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -640,7 +646,7 @@
         <v>203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -672,7 +678,7 @@
         <v>204</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -695,8 +701,8 @@
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="1">
-        <v>1005</v>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -704,30 +710,62 @@
         <v>205</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>206</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1">
         <v>1005</v>
       </c>
     </row>
